--- a/Results/Tables-report/Final report tables.xlsx
+++ b/Results/Tables-report/Final report tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R-Alotaibi\Documents\R Projects\TTI-FinalReport\Results\Tables-report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raed\Documents\R Projects\TTI-FinalReport\Results\Tables-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB83ED3-1873-4342-814E-4E51574272C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16830" yWindow="7830" windowWidth="13890" windowHeight="8850" tabRatio="797" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="13896" windowHeight="8856" tabRatio="797" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Census" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="Burden U" sheetId="14" r:id="rId9"/>
     <sheet name="Burden U State" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="169">
   <si>
     <t>Total</t>
   </si>
@@ -609,11 +610,14 @@
   <si>
     <t>Total BRFSS Samples</t>
   </si>
+  <si>
+    <t>NA%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -1002,7 +1006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1354,6 +1358,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1400,7 +1413,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1532,6 +1545,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1553,13 +1569,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1607,8 +1626,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1965,51 +1984,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="51" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="53"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="9">
         <v>2000</v>
       </c>
@@ -2047,7 +2066,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2095,8 +2114,8 @@
         <v>1.0937301284497011E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2143,8 +2162,8 @@
         <v>6.2918838421444523E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="55"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2189,8 +2208,8 @@
         <v>-7.4754901960784312E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="55"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2235,8 +2254,8 @@
         <v>-0.11396181384248211</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2271,8 +2290,8 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2317,8 +2336,8 @@
         <v>-0.36486486486486486</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="56"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2363,8 +2382,8 @@
         <v>-0.39187996469549868</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2409,8 +2428,8 @@
         <v>-0.16708229426433915</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="56"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2455,8 +2474,8 @@
         <v>0.24631578947368421</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="56"/>
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2518,36 +2537,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="75"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="75"/>
+      <c r="F1" s="77"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>69</v>
       </c>
@@ -2567,7 +2586,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>12</v>
       </c>
@@ -2587,7 +2606,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2626,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>14</v>
       </c>
@@ -2627,7 +2646,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>15</v>
       </c>
@@ -2647,7 +2666,7 @@
         <v>-0.24399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>16</v>
       </c>
@@ -2667,7 +2686,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>17</v>
       </c>
@@ -2687,7 +2706,7 @@
         <v>-6.2E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>18</v>
       </c>
@@ -2707,7 +2726,7 @@
         <v>-8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>113</v>
       </c>
@@ -2727,7 +2746,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
         <v>20</v>
       </c>
@@ -2747,7 +2766,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="46" t="s">
         <v>21</v>
       </c>
@@ -2767,7 +2786,7 @@
         <v>-0.28699999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="46" t="s">
         <v>22</v>
       </c>
@@ -2787,7 +2806,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="46" t="s">
         <v>23</v>
       </c>
@@ -2807,7 +2826,7 @@
         <v>-0.45900000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="46" t="s">
         <v>24</v>
       </c>
@@ -2827,7 +2846,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="46" t="s">
         <v>25</v>
       </c>
@@ -2847,7 +2866,7 @@
         <v>-0.46600000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="46" t="s">
         <v>26</v>
       </c>
@@ -2867,7 +2886,7 @@
         <v>-0.26300000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="46" t="s">
         <v>27</v>
       </c>
@@ -2887,7 +2906,7 @@
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>28</v>
       </c>
@@ -2907,7 +2926,7 @@
         <v>-0.53400000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="46" t="s">
         <v>29</v>
       </c>
@@ -2927,7 +2946,7 @@
         <v>-0.25900000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="46" t="s">
         <v>30</v>
       </c>
@@ -2947,7 +2966,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="46" t="s">
         <v>31</v>
       </c>
@@ -2967,7 +2986,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="46" t="s">
         <v>32</v>
       </c>
@@ -2987,7 +3006,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="46" t="s">
         <v>33</v>
       </c>
@@ -3007,7 +3026,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="46" t="s">
         <v>34</v>
       </c>
@@ -3027,7 +3046,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="46" t="s">
         <v>35</v>
       </c>
@@ -3047,7 +3066,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="46" t="s">
         <v>36</v>
       </c>
@@ -3067,7 +3086,7 @@
         <v>-0.64100000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="46" t="s">
         <v>37</v>
       </c>
@@ -3087,7 +3106,7 @@
         <v>-0.23799999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="46" t="s">
         <v>38</v>
       </c>
@@ -3107,7 +3126,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="46" t="s">
         <v>39</v>
       </c>
@@ -3127,7 +3146,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
         <v>40</v>
       </c>
@@ -3147,7 +3166,7 @@
         <v>-0.224</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="46" t="s">
         <v>41</v>
       </c>
@@ -3167,7 +3186,7 @@
         <v>-0.45500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="46" t="s">
         <v>42</v>
       </c>
@@ -3187,7 +3206,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="46" t="s">
         <v>43</v>
       </c>
@@ -3207,7 +3226,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="46" t="s">
         <v>44</v>
       </c>
@@ -3227,7 +3246,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="46" t="s">
         <v>45</v>
       </c>
@@ -3247,7 +3266,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="46" t="s">
         <v>46</v>
       </c>
@@ -3267,7 +3286,7 @@
         <v>-0.14099999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="46" t="s">
         <v>47</v>
       </c>
@@ -3287,7 +3306,7 @@
         <v>-8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="46" t="s">
         <v>48</v>
       </c>
@@ -3307,7 +3326,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="46" t="s">
         <v>49</v>
       </c>
@@ -3327,7 +3346,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="46" t="s">
         <v>50</v>
       </c>
@@ -3347,7 +3366,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="46" t="s">
         <v>51</v>
       </c>
@@ -3367,7 +3386,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="46" t="s">
         <v>52</v>
       </c>
@@ -3387,7 +3406,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="46" t="s">
         <v>53</v>
       </c>
@@ -3407,7 +3426,7 @@
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="46" t="s">
         <v>54</v>
       </c>
@@ -3427,7 +3446,7 @@
         <v>-0.13300000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="46" t="s">
         <v>55</v>
       </c>
@@ -3447,7 +3466,7 @@
         <v>-7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="46" t="s">
         <v>56</v>
       </c>
@@ -3467,7 +3486,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="46" t="s">
         <v>57</v>
       </c>
@@ -3487,7 +3506,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="46" t="s">
         <v>58</v>
       </c>
@@ -3507,7 +3526,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="46" t="s">
         <v>59</v>
       </c>
@@ -3527,7 +3546,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="46" t="s">
         <v>60</v>
       </c>
@@ -3557,48 +3576,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="K1" sqref="A1:M51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -3639,7 +3658,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3681,7 +3700,7 @@
         <v>-8.130081300813009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3723,7 +3742,7 @@
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -3765,7 +3784,7 @@
         <v>2.6666666666666668E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3807,7 +3826,7 @@
         <v>-9.8716683119447184E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -3849,7 +3868,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -3891,7 +3910,7 @@
         <v>-4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -3933,7 +3952,7 @@
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -3975,7 +3994,7 @@
         <v>-0.15384615384615385</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -4017,7 +4036,7 @@
         <v>8.2706766917293228E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -4059,7 +4078,7 @@
         <v>0.13025210084033614</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -4101,7 +4120,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -4143,7 +4162,7 @@
         <v>-4.788732394366197E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -4185,7 +4204,7 @@
         <v>5.8139534883720929E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -4227,7 +4246,7 @@
         <v>-1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -4269,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -4311,7 +4330,7 @@
         <v>9.1743119266055051E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -4353,7 +4372,7 @@
         <v>-9.7014925373134331E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -4395,7 +4414,7 @@
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
@@ -4437,7 +4456,7 @@
         <v>-2.0134228187919462E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
@@ -4479,7 +4498,7 @@
         <v>-6.7073170731707321E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -4521,7 +4540,7 @@
         <v>-0.10915492957746478</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
@@ -4563,7 +4582,7 @@
         <v>-1.4184397163120567E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -4605,7 +4624,7 @@
         <v>-3.5294117647058823E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
@@ -4647,7 +4666,7 @@
         <v>-1.282051282051282E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
@@ -4689,7 +4708,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
@@ -4731,7 +4750,7 @@
         <v>2.0408163265306121E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>38</v>
       </c>
@@ -4773,7 +4792,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
@@ -4815,7 +4834,7 @@
         <v>-8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>40</v>
       </c>
@@ -4857,7 +4876,7 @@
         <v>-2.6200873362445413E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>41</v>
       </c>
@@ -4899,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>42</v>
       </c>
@@ -4941,7 +4960,7 @@
         <v>-9.1439688715953302E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>43</v>
       </c>
@@ -4983,7 +5002,7 @@
         <v>0.14418604651162792</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -5025,7 +5044,7 @@
         <v>-0.1111111111111111</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -5067,7 +5086,7 @@
         <v>-6.6455696202531639E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>46</v>
       </c>
@@ -5109,7 +5128,7 @@
         <v>2.0408163265306121E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
@@ -5151,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>48</v>
       </c>
@@ -5193,7 +5212,7 @@
         <v>-5.9374999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>49</v>
       </c>
@@ -5235,7 +5254,7 @@
         <v>-0.1111111111111111</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>50</v>
       </c>
@@ -5277,7 +5296,7 @@
         <v>5.4054054054054057E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>51</v>
       </c>
@@ -5319,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
@@ -5361,7 +5380,7 @@
         <v>5.2287581699346407E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>53</v>
       </c>
@@ -5403,7 +5422,7 @@
         <v>0.14883720930232558</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>54</v>
       </c>
@@ -5445,7 +5464,7 @@
         <v>0.189873417721519</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>55</v>
       </c>
@@ -5487,7 +5506,7 @@
         <v>-0.125</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>56</v>
       </c>
@@ -5529,7 +5548,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>57</v>
       </c>
@@ -5571,7 +5590,7 @@
         <v>3.0120481927710843E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
@@ -5613,7 +5632,7 @@
         <v>-4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
@@ -5655,7 +5674,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>60</v>
       </c>
@@ -5710,20 +5729,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
         <v>69</v>
       </c>
@@ -5746,7 +5765,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
@@ -5757,7 +5776,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>110</v>
       </c>
@@ -5768,7 +5787,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>13</v>
       </c>
@@ -5785,7 +5804,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>14</v>
       </c>
@@ -5796,7 +5815,7 @@
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>15</v>
       </c>
@@ -5813,7 +5832,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>16</v>
       </c>
@@ -5824,7 +5843,7 @@
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>17</v>
       </c>
@@ -5845,7 +5864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>18</v>
       </c>
@@ -5856,7 +5875,7 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
         <v>111</v>
       </c>
@@ -5873,7 +5892,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
         <v>20</v>
       </c>
@@ -5884,7 +5903,7 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
         <v>21</v>
       </c>
@@ -5907,7 +5926,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>112</v>
       </c>
@@ -5918,7 +5937,7 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -5929,7 +5948,7 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>23</v>
       </c>
@@ -5946,7 +5965,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>24</v>
       </c>
@@ -5969,7 +5988,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>25</v>
       </c>
@@ -5988,7 +6007,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
         <v>26</v>
       </c>
@@ -6011,7 +6030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
         <v>27</v>
       </c>
@@ -6022,7 +6041,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
         <v>28</v>
       </c>
@@ -6037,7 +6056,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
         <v>29</v>
       </c>
@@ -6056,7 +6075,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40" t="s">
         <v>30</v>
       </c>
@@ -6079,7 +6098,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="40" t="s">
         <v>31</v>
       </c>
@@ -6090,7 +6109,7 @@
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>32</v>
       </c>
@@ -6113,7 +6132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="40" t="s">
         <v>33</v>
       </c>
@@ -6124,7 +6143,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>34</v>
       </c>
@@ -6141,7 +6160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="40" t="s">
         <v>35</v>
       </c>
@@ -6160,7 +6179,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="40" t="s">
         <v>36</v>
       </c>
@@ -6181,7 +6200,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="40" t="s">
         <v>37</v>
       </c>
@@ -6204,7 +6223,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="s">
         <v>38</v>
       </c>
@@ -6215,7 +6234,7 @@
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
         <v>39</v>
       </c>
@@ -6234,7 +6253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>40</v>
       </c>
@@ -6253,7 +6272,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40" t="s">
         <v>41</v>
       </c>
@@ -6272,7 +6291,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="40" t="s">
         <v>42</v>
       </c>
@@ -6293,7 +6312,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
         <v>43</v>
       </c>
@@ -6304,7 +6323,7 @@
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
         <v>44</v>
       </c>
@@ -6315,7 +6334,7 @@
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="40" t="s">
         <v>45</v>
       </c>
@@ -6332,7 +6351,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
         <v>46</v>
       </c>
@@ -6351,7 +6370,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>47</v>
       </c>
@@ -6366,7 +6385,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="40" t="s">
         <v>48</v>
       </c>
@@ -6383,7 +6402,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="40" t="s">
         <v>49</v>
       </c>
@@ -6400,7 +6419,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="40" t="s">
         <v>50</v>
       </c>
@@ -6411,7 +6430,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="40" t="s">
         <v>51</v>
       </c>
@@ -6422,7 +6441,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="40" t="s">
         <v>52</v>
       </c>
@@ -6433,7 +6452,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="40" t="s">
         <v>53</v>
       </c>
@@ -6454,7 +6473,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="40" t="s">
         <v>54</v>
       </c>
@@ -6475,7 +6494,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
@@ -6498,7 +6517,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="40" t="s">
         <v>56</v>
       </c>
@@ -6509,7 +6528,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="40" t="s">
         <v>57</v>
       </c>
@@ -6526,7 +6545,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="40" t="s">
         <v>58</v>
       </c>
@@ -6541,7 +6560,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="40" t="s">
         <v>59</v>
       </c>
@@ -6556,7 +6575,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="40" t="s">
         <v>60</v>
       </c>
@@ -6573,23 +6592,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
         <v>69</v>
       </c>
@@ -6606,7 +6625,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>13</v>
       </c>
@@ -6623,7 +6642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
@@ -6640,7 +6659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>17</v>
       </c>
@@ -6657,7 +6676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>113</v>
       </c>
@@ -6674,7 +6693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>21</v>
       </c>
@@ -6691,7 +6710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>23</v>
       </c>
@@ -6708,7 +6727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>24</v>
       </c>
@@ -6725,7 +6744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>25</v>
       </c>
@@ -6742,7 +6761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
         <v>26</v>
       </c>
@@ -6759,7 +6778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
         <v>28</v>
       </c>
@@ -6776,7 +6795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
         <v>29</v>
       </c>
@@ -6793,7 +6812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>30</v>
       </c>
@@ -6810,7 +6829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>32</v>
       </c>
@@ -6827,7 +6846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>34</v>
       </c>
@@ -6844,7 +6863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>35</v>
       </c>
@@ -6861,7 +6880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>36</v>
       </c>
@@ -6878,7 +6897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
         <v>37</v>
       </c>
@@ -6895,7 +6914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
         <v>39</v>
       </c>
@@ -6912,7 +6931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
         <v>40</v>
       </c>
@@ -6929,7 +6948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
         <v>41</v>
       </c>
@@ -6946,7 +6965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40" t="s">
         <v>42</v>
       </c>
@@ -6963,7 +6982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="40" t="s">
         <v>45</v>
       </c>
@@ -6980,7 +6999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>46</v>
       </c>
@@ -6997,7 +7016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="40" t="s">
         <v>47</v>
       </c>
@@ -7014,7 +7033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>48</v>
       </c>
@@ -7031,7 +7050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="40" t="s">
         <v>49</v>
       </c>
@@ -7048,7 +7067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="40" t="s">
         <v>53</v>
       </c>
@@ -7065,7 +7084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="40" t="s">
         <v>54</v>
       </c>
@@ -7082,7 +7101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="s">
         <v>55</v>
       </c>
@@ -7099,7 +7118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
         <v>57</v>
       </c>
@@ -7116,7 +7135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>58</v>
       </c>
@@ -7133,7 +7152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40" t="s">
         <v>59</v>
       </c>
@@ -7156,31 +7175,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="60"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="25">
         <v>2000</v>
       </c>
@@ -7191,16 +7210,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -7216,8 +7235,8 @@
         <v>-0.35922330097087385</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -7234,8 +7253,8 @@
         <v>-0.38047138047138052</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -7250,8 +7269,8 @@
         <v>-0.35828877005347592</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -7266,7 +7285,7 @@
         <v>-0.35483870967741937</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -7279,8 +7298,8 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="56" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -7297,8 +7316,8 @@
         <v>-0.33471074380165283</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -7313,8 +7332,8 @@
         <v>-0.27868852459016402</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="56"/>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -7329,8 +7348,8 @@
         <v>-0.38219895287958117</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="56"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -7345,8 +7364,8 @@
         <v>-0.47325102880658437</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="56"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
@@ -7361,16 +7380,16 @@
         <v>-0.42708333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -7386,8 +7405,8 @@
         <v>-0.16744186046511633</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -7404,8 +7423,8 @@
         <v>-0.18376068376068366</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
@@ -7420,8 +7439,8 @@
         <v>-0.11162790697674412</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
@@ -7436,7 +7455,7 @@
         <v>-0.16410256410256407</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>4</v>
@@ -7449,8 +7468,8 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="56" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -7467,8 +7486,8 @@
         <v>-0.17948717948717946</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
@@ -7483,8 +7502,8 @@
         <v>-0.1534883720930233</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
@@ -7499,8 +7518,8 @@
         <v>-0.16037735849056597</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="56"/>
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
@@ -7515,8 +7534,8 @@
         <v>-0.16666666666666671</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="56"/>
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
@@ -7531,16 +7550,16 @@
         <v>-0.16113744075829392</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="56"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>0</v>
       </c>
@@ -7556,8 +7575,8 @@
         <v>-0.256198347107438</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -7574,8 +7593,8 @@
         <v>-0.2706766917293234</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="61"/>
       <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
@@ -7590,8 +7609,8 @@
         <v>-0.21008403361344538</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="61"/>
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
@@ -7606,7 +7625,7 @@
         <v>-0.2568807339449542</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="4" t="s">
         <v>4</v>
@@ -7619,8 +7638,8 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="56" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -7637,8 +7656,8 @@
         <v>-0.22556390977443608</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="56"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -7653,8 +7672,8 @@
         <v>-0.2016806722689076</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="56"/>
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
@@ -7669,8 +7688,8 @@
         <v>-0.25210084033613445</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="56"/>
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -7685,8 +7704,8 @@
         <v>-0.29838709677419362</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="56"/>
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
@@ -7721,37 +7740,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection sqref="A1:J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -7783,7 +7802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -7818,7 +7837,7 @@
         <v>-0.3397435897435897</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -7853,7 +7872,7 @@
         <v>-0.35227272727272729</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -7888,7 +7907,7 @@
         <v>-0.17741935483870977</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -7923,7 +7942,7 @@
         <v>-0.40689655172413797</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -7958,7 +7977,7 @@
         <v>-0.17647058823529416</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -7993,7 +8012,7 @@
         <v>-0.30701754385964913</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -8028,7 +8047,7 @@
         <v>-0.29710144927536242</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -8063,7 +8082,7 @@
         <v>-0.29936305732484075</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -8098,7 +8117,7 @@
         <v>-0.29090909090909095</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -8133,7 +8152,7 @@
         <v>-0.31210191082802541</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -8168,7 +8187,7 @@
         <v>-0.29333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -8203,7 +8222,7 @@
         <v>-0.21527777777777773</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -8238,7 +8257,7 @@
         <v>-0.1946308724832215</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -8273,7 +8292,7 @@
         <v>-5.0505050505050504E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -8308,7 +8327,7 @@
         <v>-0.18000000000000008</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -8343,7 +8362,7 @@
         <v>-0.26143790849673204</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -8378,7 +8397,7 @@
         <v>-0.24409448818897636</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -8413,7 +8432,7 @@
         <v>-0.31506849315068491</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
@@ -8448,7 +8467,7 @@
         <v>-0.32876712328767116</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
@@ -8483,7 +8502,7 @@
         <v>-0.2735849056603773</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -8518,7 +8537,7 @@
         <v>-0.30833333333333329</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
@@ -8553,7 +8572,7 @@
         <v>-0.20618556701030921</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -8588,7 +8607,7 @@
         <v>-0.2734375</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
@@ -8623,7 +8642,7 @@
         <v>-0.17213114754098358</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
@@ -8658,7 +8677,7 @@
         <v>-0.32926829268292679</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
@@ -8693,7 +8712,7 @@
         <v>-0.10588235294117651</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>38</v>
       </c>
@@ -8728,7 +8747,7 @@
         <v>-0.26027397260273966</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
@@ -8763,7 +8782,7 @@
         <v>-0.24050632911392408</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>40</v>
       </c>
@@ -8798,7 +8817,7 @@
         <v>-0.29230769230769238</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>41</v>
       </c>
@@ -8833,7 +8852,7 @@
         <v>-0.18181818181818182</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>42</v>
       </c>
@@ -8868,7 +8887,7 @@
         <v>-0.27678571428571425</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>43</v>
       </c>
@@ -8903,7 +8922,7 @@
         <v>-0.30985915492957739</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -8938,7 +8957,7 @@
         <v>6.153846153846159E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -8973,7 +8992,7 @@
         <v>-0.24358974358974353</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>46</v>
       </c>
@@ -9008,7 +9027,7 @@
         <v>-8.9108910891089146E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
@@ -9043,7 +9062,7 @@
         <v>-0.30769230769230765</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>48</v>
       </c>
@@ -9078,7 +9097,7 @@
         <v>-0.27857142857142858</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>49</v>
       </c>
@@ -9113,7 +9132,7 @@
         <v>-0.29090909090909095</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>50</v>
       </c>
@@ -9148,7 +9167,7 @@
         <v>-0.30769230769230771</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>51</v>
       </c>
@@ -9183,7 +9202,7 @@
         <v>1.4084507042253596E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
@@ -9218,7 +9237,7 @@
         <v>-0.31372549019607848</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>53</v>
       </c>
@@ -9253,7 +9272,7 @@
         <v>-0.14018691588785048</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>54</v>
       </c>
@@ -9288,7 +9307,7 @@
         <v>-9.7560975609755976E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>55</v>
       </c>
@@ -9323,7 +9342,7 @@
         <v>-0.16176470588235289</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>56</v>
       </c>
@@ -9358,7 +9377,7 @@
         <v>-0.29104477611940299</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>57</v>
       </c>
@@ -9393,7 +9412,7 @@
         <v>-0.33333333333333331</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
@@ -9428,7 +9447,7 @@
         <v>-0.24999999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
@@ -9463,7 +9482,7 @@
         <v>-0.14150943396226415</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>60</v>
       </c>
@@ -9509,42 +9528,42 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="D15" sqref="D15:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="60"/>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="1">
         <v>2000</v>
       </c>
@@ -9564,19 +9583,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -9602,8 +9621,8 @@
         <v>-0.33333333333333343</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -9630,8 +9649,8 @@
         <v>-0.32258064516129037</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -9656,8 +9675,8 @@
         <v>-0.35000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -9682,7 +9701,7 @@
         <v>-0.33333333333333326</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -9693,21 +9712,21 @@
       <c r="D8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="56" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -9719,7 +9738,7 @@
       <c r="D9" s="2">
         <v>5900</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>-0.56934306569343063</v>
       </c>
@@ -9729,13 +9748,13 @@
       <c r="G9" s="3">
         <v>0.21</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>-0.32258064516129037</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -9745,7 +9764,7 @@
       <c r="D10" s="2">
         <v>25800</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>-0.56711409395973156</v>
       </c>
@@ -9755,13 +9774,13 @@
       <c r="G10" s="3">
         <v>0.19</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>-0.26923076923076927</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="56"/>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -9771,7 +9790,7 @@
       <c r="D11" s="2">
         <v>34500</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>-0.43163097199341022</v>
       </c>
@@ -9781,13 +9800,13 @@
       <c r="G11" s="3">
         <v>0.17</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>-0.31999999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="56"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -9797,7 +9816,7 @@
       <c r="D12" s="2">
         <v>40500</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>-0.20432220039292731</v>
       </c>
@@ -9807,13 +9826,13 @@
       <c r="G12" s="3">
         <v>0.17</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>-0.37037037037037035</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="56"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
@@ -9823,7 +9842,7 @@
       <c r="D13" s="2">
         <v>35100</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>0.45643153526970953</v>
       </c>
@@ -9833,298 +9852,298 @@
       <c r="G13" s="3">
         <v>0.18</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>-0.35714285714285721</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="2">
-        <v>379400</v>
+        <v>331200</v>
       </c>
       <c r="D15" s="2">
-        <v>331600</v>
+        <v>286500</v>
       </c>
       <c r="E15" s="3">
         <f>(D15-C15)/C15</f>
-        <v>-0.12598840274117026</v>
+        <v>-0.13496376811594202</v>
       </c>
       <c r="F15" s="3">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="G15" s="3">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="H15" s="3">
         <f>(G15-F15)/F15</f>
-        <v>-0.125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+        <v>-0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>271100</v>
+        <v>237400</v>
       </c>
       <c r="D16" s="2">
-        <v>246600</v>
+        <v>213300</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ref="E16:E24" si="2">(D16-C16)/C16</f>
-        <v>-9.0372556252305419E-2</v>
+        <v>-0.10151642796967145</v>
       </c>
       <c r="F16" s="3">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="G16" s="3">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" ref="H16:H24" si="3">(G16-F16)/F16</f>
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+        <v>-0.15909090909090912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>37600</v>
+        <v>32700</v>
       </c>
       <c r="D17" s="2">
-        <v>31800</v>
+        <v>27500</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="2"/>
-        <v>-0.15425531914893617</v>
+        <v>-0.15902140672782875</v>
       </c>
       <c r="F17" s="3">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="G17" s="3">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="3"/>
-        <v>-8.6956521739130502E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+        <v>-0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>70600</v>
+        <v>61100</v>
       </c>
       <c r="D18" s="2">
-        <v>53300</v>
+        <v>45700</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>-0.24504249291784702</v>
+        <v>-0.25204582651391161</v>
       </c>
       <c r="F18" s="3">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="G18" s="3">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="3"/>
-        <v>-0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.13888888888888887</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="51">
         <v>100</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="51">
+        <v>1</v>
+      </c>
+      <c r="H19" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="56" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>22600</v>
+        <v>19800</v>
       </c>
       <c r="D20" s="2">
-        <v>12400</v>
+        <v>10700</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="2"/>
-        <v>-0.45132743362831856</v>
+        <v>-0.45959595959595961</v>
       </c>
       <c r="F20" s="3">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="G20" s="3">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="3"/>
-        <v>-0.13725490196078433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+        <v>-0.15555555555555556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2">
-        <v>112300</v>
+        <v>98300</v>
       </c>
       <c r="D21" s="2">
-        <v>59200</v>
+        <v>51300</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="2"/>
-        <v>-0.4728406055209261</v>
+        <v>-0.47812817904374366</v>
       </c>
       <c r="F21" s="3">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="G21" s="3">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="3"/>
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+        <v>-0.13953488372093023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="2">
-        <v>115500</v>
+        <v>100800</v>
       </c>
       <c r="D22" s="2">
-        <v>83600</v>
+        <v>72300</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="2"/>
-        <v>-0.27619047619047621</v>
+        <v>-0.28273809523809523</v>
       </c>
       <c r="F22" s="3">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="G22" s="3">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="3"/>
-        <v>-0.125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+        <v>-0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="56"/>
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>90200</v>
+        <v>78700</v>
       </c>
       <c r="D23" s="2">
-        <v>98400</v>
+        <v>85000</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>8.0050825921219829E-2</v>
       </c>
       <c r="F23" s="3">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="G23" s="3">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="3"/>
-        <v>-0.10638297872340424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+        <v>-0.12195121951219511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="56"/>
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>38800</v>
+        <v>33700</v>
       </c>
       <c r="D24" s="2">
-        <v>78000</v>
+        <v>67300</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="2"/>
-        <v>1.0103092783505154</v>
+        <v>0.9970326409495549</v>
       </c>
       <c r="F24" s="3">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="G24" s="3">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="3"/>
-        <v>-0.10869565217391314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+        <v>-0.12500000000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>0</v>
       </c>
@@ -10150,8 +10169,8 @@
         <v>-0.22580645161290325</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -10178,8 +10197,8 @@
         <v>-0.24242424242424246</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="61"/>
       <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
@@ -10204,8 +10223,8 @@
         <v>-0.20689655172413784</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="61"/>
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
@@ -10230,7 +10249,7 @@
         <v>-0.21428571428571436</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="4" t="s">
         <v>4</v>
@@ -10254,8 +10273,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="56" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -10282,8 +10301,8 @@
         <v>-0.21212121212121213</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="56"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -10308,8 +10327,8 @@
         <v>-0.21875000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="56"/>
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
@@ -10334,8 +10353,8 @@
         <v>-0.22580645161290325</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="56"/>
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -10360,8 +10379,8 @@
         <v>-0.22580645161290325</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="56"/>
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
@@ -10388,6 +10407,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A3:B3"/>
@@ -10404,91 +10424,90 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:S52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="24"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="61" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="61" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="61" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="61" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="62"/>
-      <c r="S2" s="63"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="64"/>
+      <c r="S2" s="65"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
@@ -10510,19 +10529,19 @@
       <c r="G3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="78">
         <v>2000</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="78">
         <v>2010</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="78">
         <v>2000</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="78">
         <v>2010</v>
       </c>
       <c r="M3" s="23" t="s">
@@ -10547,7 +10566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
@@ -10572,24 +10591,24 @@
         <v>-0.42105263157894735</v>
       </c>
       <c r="H4" s="2">
-        <v>6100</v>
+        <v>5300</v>
       </c>
       <c r="I4" s="2">
-        <v>4800</v>
+        <v>4200</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4:J35" si="0">(I4-H4)/H4</f>
-        <v>-0.21311475409836064</v>
+        <v>-0.20754716981132076</v>
       </c>
       <c r="K4" s="7">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="L4" s="7">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M35" si="1">(L4-K4)/K4</f>
-        <v>-0.21999999999999997</v>
+        <v>-0.20930232558139528</v>
       </c>
       <c r="N4" s="2">
         <v>4500</v>
@@ -10612,7 +10631,7 @@
         <v>-0.29729729729729726</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
@@ -10637,24 +10656,24 @@
         <v>-0.33333333333333337</v>
       </c>
       <c r="H5" s="2">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="I5" s="2">
-        <v>9200</v>
+        <v>8100</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="0"/>
-        <v>-3.1578947368421054E-2</v>
+        <v>-4.7058823529411764E-2</v>
       </c>
       <c r="K5" s="7">
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L5" s="7">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="1"/>
-        <v>-0.17460317460317459</v>
+        <v>-0.19298245614035078</v>
       </c>
       <c r="N5" s="2">
         <v>3600</v>
@@ -10677,7 +10696,7 @@
         <v>-0.29166666666666657</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
@@ -10702,24 +10721,24 @@
         <v>-0.25000000000000006</v>
       </c>
       <c r="H6" s="2">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="I6" s="2">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>-8.8235294117647065E-2</v>
+        <v>-0.1</v>
       </c>
       <c r="K6" s="7">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="L6" s="7">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="1"/>
-        <v>-0.11111111111111108</v>
+        <v>-0.12500000000000011</v>
       </c>
       <c r="N6" s="2">
         <v>2300</v>
@@ -10742,7 +10761,7 @@
         <v>-0.12903225806451607</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
@@ -10767,24 +10786,24 @@
         <v>-0.35897435897435898</v>
       </c>
       <c r="H7" s="2">
-        <v>59700</v>
+        <v>53100</v>
       </c>
       <c r="I7" s="2">
-        <v>47400</v>
+        <v>41300</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>-0.20603015075376885</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="K7" s="7">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="L7" s="7">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="1"/>
-        <v>-0.20338983050847459</v>
+        <v>-0.21153846153846162</v>
       </c>
       <c r="N7" s="2">
         <v>37700</v>
@@ -10807,7 +10826,7 @@
         <v>-0.35135135135135137</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -10832,20 +10851,20 @@
         <v>-0.2580645161290322</v>
       </c>
       <c r="H8" s="2">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="I8" s="2">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>9.4339622641509441E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="K8" s="7">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="L8" s="7">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="1"/>
@@ -10872,7 +10891,7 @@
         <v>-0.10526315789473679</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
@@ -10897,24 +10916,24 @@
         <v>-0.35714285714285721</v>
       </c>
       <c r="H9" s="2">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="I9" s="2">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>-0.17142857142857143</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="K9" s="7">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="L9" s="7">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="1"/>
-        <v>-0.13157894736842102</v>
+        <v>-0.15151515151515146</v>
       </c>
       <c r="N9" s="2">
         <v>2700</v>
@@ -10937,7 +10956,7 @@
         <v>-0.24137931034482754</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>18</v>
       </c>
@@ -10962,24 +10981,24 @@
         <v>-0.25</v>
       </c>
       <c r="H10" s="6">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I10" s="6">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="L10" s="7">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="1"/>
-        <v>-4.6511627906976785E-2</v>
+        <v>-5.2631578947368467E-2</v>
       </c>
       <c r="N10" s="6">
         <v>700</v>
@@ -11002,7 +11021,7 @@
         <v>-0.1818181818181818</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
@@ -11027,24 +11046,24 @@
         <v>-0.28947368421052627</v>
       </c>
       <c r="H11" s="6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I11" s="6">
         <v>400</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333331</v>
+        <v>-0.2</v>
       </c>
       <c r="K11" s="7">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="L11" s="7">
         <v>0.36</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="1"/>
-        <v>-0.21739130434782614</v>
+        <v>-5.2631578947368467E-2</v>
       </c>
       <c r="N11" s="6">
         <v>500</v>
@@ -11067,7 +11086,7 @@
         <v>-0.28947368421052627</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
@@ -11092,24 +11111,24 @@
         <v>-0.40909090909090906</v>
       </c>
       <c r="H12" s="2">
-        <v>17900</v>
+        <v>15500</v>
       </c>
       <c r="I12" s="2">
-        <v>16300</v>
+        <v>14000</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="0"/>
-        <v>-8.9385474860335198E-2</v>
+        <v>-9.6774193548387094E-2</v>
       </c>
       <c r="K12" s="7">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="L12" s="7">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="1"/>
-        <v>-0.15555555555555556</v>
+        <v>-0.17948717948717949</v>
       </c>
       <c r="N12" s="2">
         <v>11000</v>
@@ -11132,7 +11151,7 @@
         <v>-0.28571428571428575</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
@@ -11157,24 +11176,24 @@
         <v>-0.33333333333333326</v>
       </c>
       <c r="H13" s="2">
-        <v>11100</v>
+        <v>9700</v>
       </c>
       <c r="I13" s="2">
-        <v>10300</v>
+        <v>8900</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="0"/>
-        <v>-7.2072072072072071E-2</v>
+        <v>-8.247422680412371E-2</v>
       </c>
       <c r="K13" s="7">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="L13" s="7">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="1"/>
-        <v>-0.1914893617021276</v>
+        <v>-0.19512195121951212</v>
       </c>
       <c r="N13" s="2">
         <v>9000</v>
@@ -11197,7 +11216,7 @@
         <v>-0.26315789473684204</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>22</v>
       </c>
@@ -11222,24 +11241,24 @@
         <v>-0.27777777777777773</v>
       </c>
       <c r="H14" s="2">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="I14" s="2">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="0"/>
-        <v>-0.15</v>
+        <v>-0.11764705882352941</v>
       </c>
       <c r="K14" s="7">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="L14" s="7">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>-0.26</v>
+        <v>-0.21428571428571422</v>
       </c>
       <c r="N14" s="6">
         <v>800</v>
@@ -11262,7 +11281,7 @@
         <v>-0.25000000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
@@ -11287,24 +11306,24 @@
         <v>-0.26470588235294124</v>
       </c>
       <c r="H15" s="2">
-        <v>18600</v>
+        <v>16300</v>
       </c>
       <c r="I15" s="2">
-        <v>16200</v>
+        <v>14000</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="0"/>
-        <v>-0.12903225806451613</v>
+        <v>-0.1411042944785276</v>
       </c>
       <c r="K15" s="7">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="L15" s="7">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="1"/>
-        <v>-7.6923076923076983E-2</v>
+        <v>-0.10869565217391314</v>
       </c>
       <c r="N15" s="2">
         <v>12800</v>
@@ -11327,7 +11346,7 @@
         <v>-0.19444444444444448</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
@@ -11352,20 +11371,20 @@
         <v>-0.35714285714285721</v>
       </c>
       <c r="H16" s="2">
-        <v>8100</v>
+        <v>7100</v>
       </c>
       <c r="I16" s="2">
-        <v>8200</v>
+        <v>7100</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="0"/>
-        <v>1.2345679012345678E-2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="L16" s="7">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="1"/>
@@ -11392,7 +11411,7 @@
         <v>-0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
@@ -11417,24 +11436,24 @@
         <v>-0.1875</v>
       </c>
       <c r="H17" s="2">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="I17" s="2">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
+        <v>-5.7142857142857141E-2</v>
       </c>
       <c r="K17" s="7">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="L17" s="7">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="1"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-4.5454545454545497E-2</v>
       </c>
       <c r="N17" s="2">
         <v>2100</v>
@@ -11457,7 +11476,7 @@
         <v>-3.8461538461538491E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
@@ -11482,24 +11501,24 @@
         <v>-0.22222222222222213</v>
       </c>
       <c r="H18" s="2">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="I18" s="2">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="0"/>
-        <v>-5.128205128205128E-2</v>
+        <v>-5.8823529411764705E-2</v>
       </c>
       <c r="K18" s="7">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="L18" s="7">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="1"/>
-        <v>-6.0000000000000053E-2</v>
+        <v>-6.8181818181818246E-2</v>
       </c>
       <c r="N18" s="2">
         <v>2100</v>
@@ -11522,7 +11541,7 @@
         <v>-0.14814814814814817</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
@@ -11547,24 +11566,24 @@
         <v>-0.34782608695652178</v>
       </c>
       <c r="H19" s="2">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="I19" s="2">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="0"/>
-        <v>-0.18518518518518517</v>
+        <v>-0.19148936170212766</v>
       </c>
       <c r="K19" s="7">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="L19" s="7">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="1"/>
-        <v>-0.19999999999999996</v>
+        <v>-0.186046511627907</v>
       </c>
       <c r="N19" s="2">
         <v>4000</v>
@@ -11587,7 +11606,7 @@
         <v>-0.21621621621621626</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>28</v>
       </c>
@@ -11612,24 +11631,24 @@
         <v>-0.36842105263157898</v>
       </c>
       <c r="H20" s="2">
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="I20" s="2">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="0"/>
-        <v>-0.16666666666666666</v>
+        <v>-0.17307692307692307</v>
       </c>
       <c r="K20" s="7">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="L20" s="7">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="1"/>
-        <v>-8.8888888888888962E-2</v>
+        <v>-7.6923076923076983E-2</v>
       </c>
       <c r="N20" s="2">
         <v>4200</v>
@@ -11652,7 +11671,7 @@
         <v>-0.19354838709677419</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>29</v>
       </c>
@@ -11676,25 +11695,25 @@
         <f t="shared" si="3"/>
         <v>-0.41666666666666657</v>
       </c>
-      <c r="H21" s="2">
-        <v>1000</v>
+      <c r="H21" s="6">
+        <v>800</v>
       </c>
       <c r="I21" s="6">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>-0.25</v>
       </c>
       <c r="K21" s="7">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="L21" s="7">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" si="1"/>
-        <v>-9.9999999999999908E-2</v>
+        <v>-0.1666666666666666</v>
       </c>
       <c r="N21" s="6">
         <v>700</v>
@@ -11717,7 +11736,7 @@
         <v>-0.38095238095238093</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>30</v>
       </c>
@@ -11742,24 +11761,24 @@
         <v>-0.29629629629629634</v>
       </c>
       <c r="H22" s="2">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="I22" s="2">
-        <v>5600</v>
+        <v>4800</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="0"/>
-        <v>-0.1111111111111111</v>
+        <v>-0.12727272727272726</v>
       </c>
       <c r="K22" s="7">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="L22" s="7">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="1"/>
-        <v>-9.5238095238095191E-2</v>
+        <v>-0.10810810810810806</v>
       </c>
       <c r="N22" s="2">
         <v>5200</v>
@@ -11782,7 +11801,7 @@
         <v>-0.28571428571428564</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>31</v>
       </c>
@@ -11807,24 +11826,24 @@
         <v>-0.38461538461538464</v>
       </c>
       <c r="H23" s="2">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="I23" s="2">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="0"/>
-        <v>-0.25396825396825395</v>
+        <v>-0.25925925925925924</v>
       </c>
       <c r="K23" s="7">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="L23" s="7">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" si="1"/>
-        <v>-0.18421052631578949</v>
+        <v>-0.21212121212121213</v>
       </c>
       <c r="N23" s="2">
         <v>4500</v>
@@ -11847,7 +11866,7 @@
         <v>-0.22222222222222229</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>32</v>
       </c>
@@ -11872,24 +11891,24 @@
         <v>-0.31999999999999995</v>
       </c>
       <c r="H24" s="2">
-        <v>12700</v>
+        <v>11000</v>
       </c>
       <c r="I24" s="2">
-        <v>9600</v>
+        <v>8200</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="0"/>
-        <v>-0.24409448818897639</v>
+        <v>-0.25454545454545452</v>
       </c>
       <c r="K24" s="7">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="L24" s="7">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="1"/>
-        <v>-0.15555555555555556</v>
+        <v>-0.17948717948717949</v>
       </c>
       <c r="N24" s="2">
         <v>9000</v>
@@ -11912,7 +11931,7 @@
         <v>-0.28125</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>33</v>
       </c>
@@ -11937,24 +11956,24 @@
         <v>-0.2857142857142857</v>
       </c>
       <c r="H25" s="2">
-        <v>6400</v>
+        <v>5500</v>
       </c>
       <c r="I25" s="2">
-        <v>6400</v>
+        <v>5500</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="7">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="L25" s="7">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" si="1"/>
-        <v>2.222222222222224E-2</v>
+        <v>2.5641025641025664E-2</v>
       </c>
       <c r="N25" s="2">
         <v>3800</v>
@@ -11977,7 +11996,7 @@
         <v>-0.18518518518518523</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>34</v>
       </c>
@@ -12002,24 +12021,24 @@
         <v>-0.33333333333333326</v>
       </c>
       <c r="H26" s="2">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="I26" s="2">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="0"/>
-        <v>-0.11764705882352941</v>
+        <v>-0.13793103448275862</v>
       </c>
       <c r="K26" s="7">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="L26" s="7">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="1"/>
-        <v>-7.5000000000000067E-2</v>
+        <v>-0.11764705882352951</v>
       </c>
       <c r="N26" s="2">
         <v>2700</v>
@@ -12042,7 +12061,7 @@
         <v>-0.25000000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>35</v>
       </c>
@@ -12067,24 +12086,24 @@
         <v>-0.29411764705882359</v>
       </c>
       <c r="H27" s="2">
-        <v>7600</v>
+        <v>6700</v>
       </c>
       <c r="I27" s="2">
-        <v>6800</v>
+        <v>5900</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="0"/>
-        <v>-0.10526315789473684</v>
+        <v>-0.11940298507462686</v>
       </c>
       <c r="K27" s="7">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="L27" s="7">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="1"/>
-        <v>-0.10204081632653059</v>
+        <v>-0.11627906976744183</v>
       </c>
       <c r="N27" s="2">
         <v>4900</v>
@@ -12107,7 +12126,7 @@
         <v>-0.12903225806451607</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>36</v>
       </c>
@@ -12131,25 +12150,25 @@
         <f t="shared" si="3"/>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="H28" s="2">
-        <v>1100</v>
+      <c r="H28" s="6">
+        <v>900</v>
       </c>
       <c r="I28" s="6">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="0"/>
-        <v>-0.18181818181818182</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="K28" s="7">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="L28" s="7">
-        <v>0.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="1"/>
-        <v>-0.13636363636363635</v>
+        <v>-0.19444444444444448</v>
       </c>
       <c r="N28" s="6">
         <v>600</v>
@@ -12172,7 +12191,7 @@
         <v>-0.29166666666666657</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>37</v>
       </c>
@@ -12197,24 +12216,24 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="H29" s="2">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="I29" s="2">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="0"/>
-        <v>-7.407407407407407E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="K29" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.49</v>
       </c>
       <c r="L29" s="7">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="M29" s="3">
         <f t="shared" si="1"/>
-        <v>-9.0909090909090981E-2</v>
+        <v>-0.10204081632653059</v>
       </c>
       <c r="N29" s="2">
         <v>1200</v>
@@ -12237,7 +12256,7 @@
         <v>-8.3333333333333301E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>38</v>
       </c>
@@ -12262,24 +12281,24 @@
         <v>-0.29629629629629634</v>
       </c>
       <c r="H30" s="2">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="I30" s="2">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="0"/>
-        <v>-6.25E-2</v>
+        <v>-7.1428571428571425E-2</v>
       </c>
       <c r="K30" s="7">
-        <v>0.56999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="L30" s="7">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="M30" s="3">
         <f t="shared" si="1"/>
-        <v>-0.26315789473684209</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="N30" s="2">
         <v>1100</v>
@@ -12302,7 +12321,7 @@
         <v>-0.25000000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>39</v>
       </c>
@@ -12327,24 +12346,24 @@
         <v>-0.44444444444444442</v>
       </c>
       <c r="H31" s="6">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I31" s="6">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="0"/>
-        <v>-0.1111111111111111</v>
+        <v>-0.25</v>
       </c>
       <c r="K31" s="7">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="L31" s="7">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="M31" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.20833333333333329</v>
       </c>
       <c r="N31" s="6">
         <v>700</v>
@@ -12367,7 +12386,7 @@
         <v>-0.23809523809523805</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>40</v>
       </c>
@@ -12392,24 +12411,24 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="H32" s="2">
-        <v>10600</v>
+        <v>9200</v>
       </c>
       <c r="I32" s="2">
-        <v>9700</v>
+        <v>8400</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>-8.4905660377358486E-2</v>
+        <v>-8.6956521739130432E-2</v>
       </c>
       <c r="K32" s="7">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="L32" s="7">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="1"/>
-        <v>-6.521739130434788E-2</v>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="N32" s="2">
         <v>7400</v>
@@ -12432,7 +12451,7 @@
         <v>-0.25000000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>41</v>
       </c>
@@ -12457,24 +12476,24 @@
         <v>-0.20000000000000004</v>
       </c>
       <c r="H33" s="2">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="I33" s="2">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="0"/>
-        <v>-4.3478260869565216E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="K33" s="7">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="L33" s="7">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="1"/>
-        <v>-4.878048780487796E-2</v>
+        <v>-5.5555555555555455E-2</v>
       </c>
       <c r="N33" s="6">
         <v>800</v>
@@ -12497,7 +12516,7 @@
         <v>-0.14285714285714296</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>42</v>
       </c>
@@ -12522,24 +12541,24 @@
         <v>-0.34210526315789475</v>
       </c>
       <c r="H34" s="2">
-        <v>24100</v>
+        <v>21000</v>
       </c>
       <c r="I34" s="2">
-        <v>18800</v>
+        <v>16200</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="0"/>
-        <v>-0.21991701244813278</v>
+        <v>-0.22857142857142856</v>
       </c>
       <c r="K34" s="7">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="L34" s="7">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="M34" s="3">
         <f t="shared" si="1"/>
-        <v>-0.14893617021276587</v>
+        <v>-0.14634146341463414</v>
       </c>
       <c r="N34" s="2">
         <v>16200</v>
@@ -12562,7 +12581,7 @@
         <v>-0.28125</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>43</v>
       </c>
@@ -12587,24 +12606,24 @@
         <v>-0.31578947368421051</v>
       </c>
       <c r="H35" s="2">
-        <v>9700</v>
+        <v>8400</v>
       </c>
       <c r="I35" s="2">
-        <v>8800</v>
+        <v>7500</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="0"/>
-        <v>-9.2783505154639179E-2</v>
+        <v>-0.10714285714285714</v>
       </c>
       <c r="K35" s="7">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="L35" s="7">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="M35" s="3">
         <f t="shared" si="1"/>
-        <v>-0.20000000000000004</v>
+        <v>-0.23076923076923084</v>
       </c>
       <c r="N35" s="2">
         <v>7400</v>
@@ -12627,7 +12646,7 @@
         <v>-0.26470588235294124</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>44</v>
       </c>
@@ -12652,24 +12671,24 @@
         <v>-0.45454545454545459</v>
       </c>
       <c r="H36" s="6">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I36" s="6">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" ref="J36:J52" si="6">(I36-H36)/H36</f>
         <v>0</v>
       </c>
       <c r="K36" s="7">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="L36" s="7">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="M36" s="3">
         <f t="shared" ref="M36:M52" si="7">(L36-K36)/K36</f>
-        <v>0.12820512820512817</v>
+        <v>0.15151515151515146</v>
       </c>
       <c r="N36" s="6">
         <v>300</v>
@@ -12692,7 +12711,7 @@
         <v>0.11764705882352934</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>45</v>
       </c>
@@ -12717,24 +12736,24 @@
         <v>-0.37037037037037035</v>
       </c>
       <c r="H37" s="2">
-        <v>15400</v>
+        <v>13400</v>
       </c>
       <c r="I37" s="2">
-        <v>13300</v>
+        <v>11500</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="6"/>
-        <v>-0.13636363636363635</v>
+        <v>-0.1417910447761194</v>
       </c>
       <c r="K37" s="7">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="L37" s="7">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="M37" s="3">
         <f t="shared" si="7"/>
-        <v>-8.1632653061224456E-2</v>
+        <v>-7.1428571428571369E-2</v>
       </c>
       <c r="N37" s="2">
         <v>11700</v>
@@ -12757,7 +12776,7 @@
         <v>-0.1891891891891892</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>46</v>
       </c>
@@ -12782,24 +12801,24 @@
         <v>-0.27777777777777773</v>
       </c>
       <c r="H38" s="2">
-        <v>4900</v>
+        <v>4300</v>
       </c>
       <c r="I38" s="2">
-        <v>4500</v>
+        <v>3900</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="6"/>
-        <v>-8.1632653061224483E-2</v>
+        <v>-9.3023255813953487E-2</v>
       </c>
       <c r="K38" s="7">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="L38" s="7">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="M38" s="3">
         <f t="shared" si="7"/>
-        <v>-9.9999999999999978E-2</v>
+        <v>-0.1136363636363636</v>
       </c>
       <c r="N38" s="2">
         <v>2600</v>
@@ -12822,7 +12841,7 @@
         <v>-0.1111111111111112</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>47</v>
       </c>
@@ -12847,24 +12866,24 @@
         <v>-0.36363636363636359</v>
       </c>
       <c r="H39" s="2">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="I39" s="2">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="6"/>
-        <v>-0.21621621621621623</v>
+        <v>-0.21875</v>
       </c>
       <c r="K39" s="7">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="L39" s="7">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="M39" s="3">
         <f t="shared" si="7"/>
-        <v>-0.22500000000000006</v>
+        <v>-0.20588235294117649</v>
       </c>
       <c r="N39" s="2">
         <v>2000</v>
@@ -12887,7 +12906,7 @@
         <v>-0.27272727272727271</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>48</v>
       </c>
@@ -12912,24 +12931,24 @@
         <v>-0.33333333333333326</v>
       </c>
       <c r="H40" s="2">
-        <v>15200</v>
+        <v>13200</v>
       </c>
       <c r="I40" s="2">
-        <v>11900</v>
+        <v>10200</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="6"/>
-        <v>-0.21710526315789475</v>
+        <v>-0.22727272727272727</v>
       </c>
       <c r="K40" s="7">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="L40" s="7">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="M40" s="3">
         <f t="shared" si="7"/>
-        <v>-0.1666666666666666</v>
+        <v>-0.17073170731707307</v>
       </c>
       <c r="N40" s="2">
         <v>11000</v>
@@ -12952,7 +12971,7 @@
         <v>-0.23529411764705885</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>49</v>
       </c>
@@ -12977,24 +12996,24 @@
         <v>-0.34615384615384615</v>
       </c>
       <c r="H41" s="2">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I41" s="6">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="6"/>
-        <v>-0.27272727272727271</v>
+        <v>-0.3</v>
       </c>
       <c r="K41" s="7">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="L41" s="7">
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M41" s="3">
         <f t="shared" si="7"/>
-        <v>-0.19512195121951212</v>
+        <v>-0.21621621621621626</v>
       </c>
       <c r="N41" s="6">
         <v>800</v>
@@ -13017,7 +13036,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>50</v>
       </c>
@@ -13042,24 +13061,24 @@
         <v>-0.3125</v>
       </c>
       <c r="H42" s="2">
-        <v>5100</v>
+        <v>4500</v>
       </c>
       <c r="I42" s="2">
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="6"/>
-        <v>-0.19607843137254902</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="K42" s="7">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="L42" s="7">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="M42" s="3">
         <f t="shared" si="7"/>
-        <v>-0.23913043478260879</v>
+        <v>-0.26829268292682923</v>
       </c>
       <c r="N42" s="2">
         <v>3800</v>
@@ -13082,7 +13101,7 @@
         <v>-0.23529411764705885</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>51</v>
       </c>
@@ -13107,20 +13126,20 @@
         <v>0</v>
       </c>
       <c r="H43" s="6">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I43" s="6">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K43" s="7">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="L43" s="7">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="M43" s="3">
         <f t="shared" si="7"/>
@@ -13147,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>52</v>
       </c>
@@ -13172,24 +13191,24 @@
         <v>-0.27272727272727271</v>
       </c>
       <c r="H44" s="2">
-        <v>7800</v>
+        <v>6800</v>
       </c>
       <c r="I44" s="2">
-        <v>6400</v>
+        <v>5500</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="6"/>
-        <v>-0.17948717948717949</v>
+        <v>-0.19117647058823528</v>
       </c>
       <c r="K44" s="7">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="L44" s="7">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="M44" s="3">
         <f t="shared" si="7"/>
-        <v>-0.2156862745098039</v>
+        <v>-0.22727272727272721</v>
       </c>
       <c r="N44" s="2">
         <v>5600</v>
@@ -13212,7 +13231,7 @@
         <v>-0.27027027027027023</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>53</v>
       </c>
@@ -13237,24 +13256,24 @@
         <v>-0.3</v>
       </c>
       <c r="H45" s="2">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="I45" s="2">
-        <v>32400</v>
+        <v>28000</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="6"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="7">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="L45" s="7">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" si="7"/>
-        <v>-0.12</v>
+        <v>-0.11627906976744183</v>
       </c>
       <c r="N45" s="2">
         <v>18100</v>
@@ -13277,7 +13296,7 @@
         <v>-0.10714285714285723</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>54</v>
       </c>
@@ -13302,24 +13321,24 @@
         <v>-0.3103448275862068</v>
       </c>
       <c r="H46" s="2">
-        <v>4100</v>
+        <v>3600</v>
       </c>
       <c r="I46" s="2">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="6"/>
-        <v>7.3170731707317069E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="K46" s="7">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="L46" s="7">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="M46" s="3">
         <f t="shared" si="7"/>
-        <v>-9.6153846153846242E-2</v>
+        <v>-0.13043478260869565</v>
       </c>
       <c r="N46" s="2">
         <v>1800</v>
@@ -13342,7 +13361,7 @@
         <v>-8.6956521739130502E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>55</v>
       </c>
@@ -13367,24 +13386,24 @@
         <v>-0.63157894736842102</v>
       </c>
       <c r="H47" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I47" s="6">
         <v>300</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="6"/>
-        <v>-0.4</v>
+        <v>-0.25</v>
       </c>
       <c r="K47" s="7">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="L47" s="7">
         <v>0.21</v>
       </c>
       <c r="M47" s="3">
         <f t="shared" si="7"/>
-        <v>-0.32258064516129037</v>
+        <v>-0.16000000000000003</v>
       </c>
       <c r="N47" s="6">
         <v>300</v>
@@ -13407,7 +13426,7 @@
         <v>-0.26315789473684204</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>56</v>
       </c>
@@ -13432,24 +13451,24 @@
         <v>-0.29166666666666657</v>
       </c>
       <c r="H48" s="2">
-        <v>8000</v>
+        <v>6900</v>
       </c>
       <c r="I48" s="2">
-        <v>7300</v>
+        <v>6300</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="6"/>
-        <v>-8.7499999999999994E-2</v>
+        <v>-8.6956521739130432E-2</v>
       </c>
       <c r="K48" s="7">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="L48" s="7">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="M48" s="3">
         <f t="shared" si="7"/>
-        <v>-0.14285714285714285</v>
+        <v>-0.11111111111111106</v>
       </c>
       <c r="N48" s="2">
         <v>6300</v>
@@ -13472,7 +13491,7 @@
         <v>-0.24242424242424246</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>57</v>
       </c>
@@ -13497,24 +13516,24 @@
         <v>-0.21739130434782614</v>
       </c>
       <c r="H49" s="2">
-        <v>6700</v>
+        <v>5800</v>
       </c>
       <c r="I49" s="2">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="6"/>
-        <v>-0.19402985074626866</v>
+        <v>-0.20689655172413793</v>
       </c>
       <c r="K49" s="7">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="L49" s="7">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="M49" s="3">
         <f t="shared" si="7"/>
-        <v>-0.20000000000000004</v>
+        <v>-0.22857142857142848</v>
       </c>
       <c r="N49" s="2">
         <v>3900</v>
@@ -13537,7 +13556,7 @@
         <v>-0.30434782608695654</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>58</v>
       </c>
@@ -13562,24 +13581,24 @@
         <v>-0.3</v>
       </c>
       <c r="H50" s="2">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="I50" s="2">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="6"/>
-        <v>-0.10526315789473684</v>
+        <v>-0.17647058823529413</v>
       </c>
       <c r="K50" s="7">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="L50" s="7">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="M50" s="3">
         <f t="shared" si="7"/>
-        <v>-6.9767441860465046E-2</v>
+        <v>-0.15384615384615383</v>
       </c>
       <c r="N50" s="2">
         <v>1500</v>
@@ -13602,7 +13621,7 @@
         <v>-0.23529411764705885</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
         <v>59</v>
       </c>
@@ -13627,24 +13646,24 @@
         <v>-0.2857142857142857</v>
       </c>
       <c r="H51" s="2">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="I51" s="2">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="6"/>
-        <v>-3.0769230769230771E-2</v>
+        <v>-1.7857142857142856E-2</v>
       </c>
       <c r="K51" s="7">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="L51" s="7">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="M51" s="3">
         <f t="shared" si="7"/>
-        <v>2.3255813953488393E-2</v>
+        <v>2.7027027027027053E-2</v>
       </c>
       <c r="N51" s="2">
         <v>4200</v>
@@ -13667,7 +13686,7 @@
         <v>-0.10714285714285723</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>60</v>
       </c>
@@ -13692,24 +13711,24 @@
         <v>-0.5</v>
       </c>
       <c r="H52" s="6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I52" s="6">
         <v>500</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="6"/>
-        <v>-0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K52" s="7">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="L52" s="7">
         <v>0.33</v>
       </c>
       <c r="M52" s="3">
         <f t="shared" si="7"/>
-        <v>-0.23255813953488366</v>
+        <v>-8.3333333333333259E-2</v>
       </c>
       <c r="N52" s="6">
         <v>200</v>
@@ -13750,43 +13769,43 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
-    </row>
-    <row r="2" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="30" t="s">
@@ -13817,7 +13836,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="31" t="s">
         <v>0</v>
@@ -13850,8 +13869,8 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="74" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -13885,8 +13904,8 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="72"/>
       <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
@@ -13918,8 +13937,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
+    <row r="6" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="73"/>
       <c r="B6" s="31" t="s">
         <v>1</v>
       </c>
@@ -13951,8 +13970,8 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="71" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -13986,8 +14005,8 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="72"/>
       <c r="B8" s="31" t="s">
         <v>7</v>
       </c>
@@ -14019,8 +14038,8 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
       <c r="B9" s="31" t="s">
         <v>8</v>
       </c>
@@ -14052,8 +14071,8 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
       <c r="B10" s="31" t="s">
         <v>9</v>
       </c>
@@ -14085,8 +14104,8 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73"/>
       <c r="B11" s="31" t="s">
         <v>100</v>
       </c>
